--- a/Docs/Máquina 1 - Tablas de Datos Lab 7.xlsx
+++ b/Docs/Máquina 1 - Tablas de Datos Lab 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatig\OneDrive\Desktop\EDA\Reto2-G01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37e2a68dcb2a11c0/Desktop/EDA/LabCollision-S07-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2573780-6027-46E4-9868-B720C842572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A2573780-6027-46E4-9868-B720C842572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79964476-557E-4C79-A410-55DC5D7385D0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="767" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -160,6 +157,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +526,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab7'!$A$8:$C$8</c:f>
+              <c:f>'Datos Lab7'!$A$1:$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Carga de Catálogo CHAINING</c:v>
+                  <c:v>Carga de Catálogo PROBING</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -607,7 +607,7 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$3:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0\.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1307650.355</c:v>
@@ -733,7 +733,7 @@
             <c:numRef>
               <c:f>'Datos Lab7'!$B$10:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0\.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1307659.6529999999</c:v>
@@ -869,7 +869,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0\.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1678,7 +1678,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298609" cy="6073913"/>
+    <xdr:ext cx="9302750" cy="6080125"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2042,11 +2042,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2063,10 +2063,10 @@
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1307650.355</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>54539.883999999998</v>
       </c>
     </row>
@@ -2074,10 +2074,10 @@
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1307650.574</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>56033.995999999999</v>
       </c>
     </row>
@@ -2085,19 +2085,19 @@
       <c r="A5" s="2">
         <v>0.8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1307650.355</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>57098.546999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -2114,10 +2114,10 @@
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1307659.6529999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>54038.963000000003</v>
       </c>
     </row>
@@ -2125,10 +2125,10 @@
       <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1307659.341</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>55787.807999999997</v>
       </c>
     </row>
@@ -2136,10 +2136,10 @@
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>1307659.341</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>52579.866999999998</v>
       </c>
     </row>
@@ -2369,18 +2369,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2403,14 +2403,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -2425,4 +2417,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>